--- a/design_documents/データベース.xlsx
+++ b/design_documents/データベース.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seiya\Documents\VSdir\independent_learning_system\design_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2285D360-67CD-43F2-9C7B-27E5AEE48DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A7E74C-38D7-4A6C-A40A-647B8CD7238F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38385" yWindow="450" windowWidth="19185" windowHeight="15750" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="テンプレート" sheetId="1" r:id="rId3"/>
     <sheet name="t_users" sheetId="12" r:id="rId4"/>
     <sheet name="t_subject" sheetId="13" r:id="rId5"/>
-    <sheet name="テンプレート (2)" sheetId="14" r:id="rId6"/>
+    <sheet name="t_session" sheetId="14" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="47">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -314,6 +314,34 @@
   </si>
   <si>
     <t>ils</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t_histories</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインした履歴を持つ</t>
+    <rPh sb="6" eb="8">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教科の説明</t>
+    <rPh sb="0" eb="2">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セツメイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -815,7 +843,7 @@
   <dimension ref="B1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -911,8 +939,12 @@
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="1"/>
@@ -971,7 +1003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -1693,8 +1725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A927ADC5-F92C-4019-9B26-0D256548BD92}">
   <dimension ref="B1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1826,11 +1858,17 @@
     <row r="9" spans="2:8">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="2"/>
@@ -2047,7 +2085,7 @@
   <dimension ref="B1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/design_documents/データベース.xlsx
+++ b/design_documents/データベース.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seiya\Documents\VSdir\independent_learning_system\design_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A7E74C-38D7-4A6C-A40A-647B8CD7238F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B9EF07-C1F0-458D-973F-794464BB5A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38385" yWindow="450" windowWidth="19185" windowHeight="15750" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="330" windowWidth="29040" windowHeight="15990" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="t_users" sheetId="12" r:id="rId4"/>
     <sheet name="t_subject" sheetId="13" r:id="rId5"/>
     <sheet name="t_session" sheetId="14" r:id="rId6"/>
+    <sheet name="t_problems" sheetId="15" r:id="rId7"/>
+    <sheet name="t_choices" sheetId="16" r:id="rId8"/>
+    <sheet name="t_images" sheetId="17" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="69">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -342,6 +345,139 @@
     <rPh sb="3" eb="5">
       <t>セツメイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t_problems</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題データを持つ</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t_choices</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t_images</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題の選択肢</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>センタクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題に使われる画像のパス</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>problem_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>answer_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>problem_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t_problem.id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>choice_text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>collect_flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>subject_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t_subject.id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t_images.id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題に画像を使うかテキストを使うか</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキスト入力か選択式か</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>センタクシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>problem_body</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題の本文</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホンブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image_path</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -374,12 +510,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="11">
@@ -512,7 +654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -521,6 +663,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -840,10 +985,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B329718-D260-4527-8A52-904D0FF365E7}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -861,16 +1007,16 @@
       <c r="C2"/>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1">
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
     </row>
     <row r="5" spans="2:4">
       <c r="B5"/>
@@ -901,10 +1047,10 @@
       <c r="C9"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="17"/>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="1" t="s">
@@ -915,48 +1061,60 @@
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="1"/>
@@ -979,6 +1137,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E33CB70-9D99-4330-B09A-AAD74D4429BC}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1001,6 +1160,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1029,21 +1189,21 @@
       <c r="H1"/>
     </row>
     <row r="2" spans="2:8">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
     </row>
     <row r="3" spans="2:8" ht="19.5" thickBot="1">
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
@@ -1366,6 +1526,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39CEAE83-6772-49FF-BA07-896F93E2851C}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1394,21 +1555,21 @@
       <c r="H1"/>
     </row>
     <row r="2" spans="2:8">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
     </row>
     <row r="3" spans="2:8" ht="19.5" thickBot="1">
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
@@ -1723,9 +1884,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A927ADC5-F92C-4019-9B26-0D256548BD92}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1751,21 +1913,21 @@
       <c r="H1"/>
     </row>
     <row r="2" spans="2:8">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
     </row>
     <row r="3" spans="2:8" ht="19.5" thickBot="1">
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
@@ -2082,6 +2244,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA6A380-568C-45E0-82C2-E70B4C9CE858}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2110,21 +2273,21 @@
       <c r="H1"/>
     </row>
     <row r="2" spans="2:8">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
     </row>
     <row r="3" spans="2:8" ht="19.5" thickBot="1">
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
@@ -2433,4 +2596,1078 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565690AD-8513-4A71-AF0C-E9B4430B74F9}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="B1:H30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="8.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9" style="7"/>
+    <col min="4" max="4" width="18.25" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9" style="6"/>
+    <col min="6" max="6" width="10.625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="20.125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="35.875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+    </row>
+    <row r="2" spans="2:8">
+      <c r="B2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="19.5" thickTop="1">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="9">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="2">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="2"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="2"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="2"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="2"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="2"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="2"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="2"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="2"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="2"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="2"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="2"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="2"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="2"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="2"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="2"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="2"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="2"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="1"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:E1048576" xr:uid="{5632384B-F568-4FEA-AA05-4E73C821FE12}">
+      <formula1>"数値,文字列,日付時刻,真偽"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C9 C11:C1048576" xr:uid="{956DD135-AEF7-4E85-844F-E757081E3325}">
+      <formula1>"●"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E7 E9:E10" xr:uid="{BE679647-6E0F-43DA-B3B3-23AB34C79366}">
+      <formula1>"数値,文字列,日付時刻"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AB1FC0-68CB-41DF-ABA2-737A1095C6D6}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="B1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="8.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9" style="7"/>
+    <col min="4" max="4" width="18.25" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9" style="6"/>
+    <col min="6" max="6" width="10.625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="20.125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="35.875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+    </row>
+    <row r="2" spans="2:8">
+      <c r="B2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="19.5" thickTop="1">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="1"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="2"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="2"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="2"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="2"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="2"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="2"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="2"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="2"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="2"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="2"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="2"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="2"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="2"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="2"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="2"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="2"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="2"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="1"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E9" xr:uid="{7E0D4145-AB32-474A-9C63-636E5F197C50}">
+      <formula1>"数値,文字列,日付時刻"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E1048576" xr:uid="{81E12B04-9380-42E3-86A0-35C6CE199678}">
+      <formula1>"数値,文字列,日付時刻,真偽"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C8 C10:C1048576" xr:uid="{7D52E9DA-F5D4-4037-A5DC-16B608CE268A}">
+      <formula1>"●"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FEDFD1B-2E2E-4E02-BA7F-70D04C65247B}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="B1:H30"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="8.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9" style="7"/>
+    <col min="4" max="4" width="18.25" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9" style="6"/>
+    <col min="6" max="6" width="10.625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="20.125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="35.875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+    </row>
+    <row r="2" spans="2:8">
+      <c r="B2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="19.5" thickTop="1">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="1"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="2"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="2"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="2"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="2"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="2"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="2"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="2"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="2"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="2"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="2"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="2"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="2"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="2"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="2"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="2"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="2"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="2"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="1"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E9" xr:uid="{E248E7E4-4992-4A6D-9C54-BF906BB89B2B}">
+      <formula1>"数値,文字列,日付時刻"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E1048576" xr:uid="{28A0C029-BBB5-4959-8771-E987FC2F338C}">
+      <formula1>"数値,文字列,日付時刻,真偽"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C8 C10:C1048576" xr:uid="{F89CD3B1-3671-4BB4-9590-190513B05647}">
+      <formula1>"●"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>